--- a/1_Abgaben/1_Projektauftrag_modularer_Synthesizer_Vorlage.xlsx
+++ b/1_Abgaben/1_Projektauftrag_modularer_Synthesizer_Vorlage.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wayne\Documents\Bildung\Studium\Master_Semester_2\Projektseminar\Abgaben\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\Synthesizer\1_Abgaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262DA686-E693-47BC-9950-42564AA87C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FA9BDE-EA53-433F-B9E7-EA0D72F77CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="C03D" lockStructure="1" lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14340" yWindow="8835" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt-Steckbrief (Start)" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t xml:space="preserve">Für Lehrzwecke </t>
   </si>
   <si>
-    <t>Entwicklung eines Synthesizer-Moduls zur elektronischen Tonerzeugung → LFO (Low Frequency Oscillator). Ein einstellbarer Oszillator erzeugt verschiedene elektronische Signalformen (Dreieck- und Rechtecksignale) deren Frequenz durch Veränderung der Potentiometerstellung variiert werden kann. Die hierdurch erzeugten Singale können über Lautsprecher als Töne wiedergegeben werden oder im weiteren Verlauf durch andere Synthesizer-Module modifiziert werden. Besonders nützlich ist dies Modul zum Ansteuern von anderen Modulen wie etwa einem VCO (Voltage Controlled Oscillator).</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Entwicklungszeit &lt; 3 Monate
 Gewicht &lt; 5 kg
 Anzahl verschiedener Module &gt;= 5
@@ -152,7 +149,10 @@
     <t>Durch die Entwicklung eines modularen Synthesizers soll der Kenntnisstand in Bezug auf analoge Schaltungstechnik erweitert werden.</t>
   </si>
   <si>
-    <t>&gt;&gt;&gt;&gt;&gt; Muster Name &lt;&lt;&lt;&lt;&lt;</t>
+    <t xml:space="preserve"> Toni Sedlmeier</t>
+  </si>
+  <si>
+    <t>Entwicklung eines Synthesizer-Moduls zur elektronischen Tonerzeugung → VCF (Voltage Controlled Filter). Ein Spannungsgesteuerter Filter (engl. Voltage Controlled Filter) ist in der Lage aus einem beliebigen elektronischen Signal (hier Audiosignal) bestimmte Frequenzen zu verstärken bzw. zu dämpfen. Welche Frequenzanteile wie manipuliert werden, wird dabei von den Parametern Eckfrequenz, Resonanzüberhöhung, und Charakteristik determiniert. Die Charakteristik (z.B Tiefpass, Hochpass, Bandpass) ist durch die implementierte Schaltung festgelegt und die Parameter Eckfrequenz bzw. Resonanzüberhöhung können sowohl über ein Potentiometer, als auch durch eine angelegte Steuerspannung verstellt werden.</t>
   </si>
 </sst>
 </file>
@@ -464,6 +464,42 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,16 +507,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,35 +530,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -882,201 +882,201 @@
       <selection activeCell="E9" sqref="E9:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.09765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.8984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.3984375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-    </row>
-    <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="2:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="2:11" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="2:11" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="E5" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="2:11" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="2:11" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="2:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9"/>
       <c r="C8" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="E9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="2:11" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="2:11" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="27"/>
+    </row>
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="17"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="34">
+      <c r="E15" s="23">
         <v>44838</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="35">
+      <c r="E16" s="24">
         <v>44917</v>
       </c>
-      <c r="F16" s="36"/>
-    </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="32" t="s">
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="33"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="3"/>
       <c r="E17" s="13" t="s">
         <v>21</v>
@@ -1085,7 +1085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
       <c r="D18" s="10" t="s">
@@ -1098,7 +1098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="10" t="s">
@@ -1111,7 +1111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
       <c r="D20" s="10" t="s">
@@ -1124,7 +1124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="10" t="s">
@@ -1137,7 +1137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="10" t="s">
@@ -1150,7 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
@@ -1163,9 +1163,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G1:K2"/>
     <mergeCell ref="B17:C17"/>
@@ -1182,19 +1195,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
@@ -1202,18 +1202,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1349,6 +1349,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B871C7-0A29-4F35-81D8-143A73437841}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCF86186-A4F0-4536-BAE1-88CF4E188EF2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -1360,14 +1368,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B871C7-0A29-4F35-81D8-143A73437841}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
